--- a/inst/extdata/projects/simulated-data/simulated-data.xlsx
+++ b/inst/extdata/projects/simulated-data/simulated-data.xlsx
@@ -572,118 +572,118 @@
     <t xml:space="preserve">Lobster Bay</t>
   </si>
   <si>
+    <t xml:space="preserve">Port Joli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please enter feasibility information for your sites into this worksheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifically, we ask that you input data indicating which management actions are feasible to implement within each site. By default, all actions can be potentially implemented within each and every site. To specify that a certain a certain action cannot be implemented within a certain site, please enter value of “0”. You can also ensure that a certain site can ONLY have a certain action implemented within it, by specifying a value of “0” for every other action. This information, if you prefer, can also be specified within the NCC Priority Actions App---however, you will have to re-specify this information each and every time you open the NCC Priority Actions App.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feasibility of “Maintain”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feasibility of “Restore”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feasibility of “Signage”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please enter information for your features into this worksheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifically, we ask that you input values to specify trade-offs for managing different biodiversity elements (e.g. species, habitat types) within your conservation planning exercise. To help prioritize implementation of specific management actions in specific sites, we require percentage-based threshold values to specify the minimum amount of each feature you think is important to achieve across all of the sites (termed “goal”). Specifically, the goal values are expressed as a percentage of the maximum possible amount of each feature, assuming that the best possible action for each feature was implemented within each site (per the expecation data). To ensure that the prioritization process explicitly accounts for your objectives (i.e. what YOU think is important), you can also specify the relative importance (weight) of each feature. The default value is 1 such that all features are considered equally important. Greater values indicate greater importance. A weight of exactly 0 means that a feature is not important at all and does not “count” when comparing different conservation plans. Both goal and weight values should be between 0 and 100. Please note that these values can be changed later in the What To Do application. After filling out this worksheet, every light gray cell should have a numerical value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goal (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative importance (weight)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salt Marsh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freshwater Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please enter information for your “Maintain” action into this worksheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifically, we ask that you input the amount of each biodiversity element (termed feature) that you would expect to occur within each site after you implemented the “Maintain” action. For example, these values could indicate that you expect a certain feature (e.g. species) to be present (using a value of “1”) or absent (using a value of “0”) within certain sites after this action is implemented. Alternatively, these could represent quantities such as expected population size (using count values) or amount of habitat (in km^2). Although different feature can have different units, each feature must have values in the same units. Thus all rows in the same column within this worksheet must be in the same units. Additionally, across worksheets for different actions (i.e. those starting with the word “Expectation”), the values in the same column must be in the same units (e.g. all values in the column B in each of these of these action worksheets must have the same units). After filling out this worksheet, every light gray cell should have a numerical value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount of “Salt Marsh”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount of “ACPF”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount of “Freshwater Wetland”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please enter information for your “Restore” action into this worksheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifically, we ask that you input the amount of each biodiversity element (termed feature) that you would expect to occur within each site after you implemented the “Restore” action. For example, these values could indicate that you expect a certain feature (e.g. species) to be present (using a value of “1”) or absent (using a value of “0”) within certain sites after this action is implemented. Alternatively, these could represent quantities such as expected population size (using count values) or amount of habitat (in km^2). Although different feature can have different units, each feature must have values in the same units. Thus all rows in the same column within this worksheet must be in the same units. Additionally, across worksheets for different actions (i.e. those starting with the word “Expectation”), the values in the same column must be in the same units (e.g. all values in the column B in each of these of these action worksheets must have the same units). After filling out this worksheet, every light gray cell should have a numerical value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please enter information for your “Signage” action into this worksheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifically, we ask that you input the amount of each biodiversity element (termed feature) that you would expect to occur within each site after you implemented the “Signage” action. For example, these values could indicate that you expect a certain feature (e.g. species) to be present (using a value of “1”) or absent (using a value of “0”) within certain sites after this action is implemented. Alternatively, these could represent quantities such as expected population size (using count values) or amount of habitat (in km^2). Although different feature can have different units, each feature must have values in the same units. Thus all rows in the same column within this worksheet must be in the same units. Additionally, across worksheets for different actions (i.e. those starting with the word “Expectation”), the values in the same column must be in the same units (e.g. all values in the column B in each of these of these action worksheets must have the same units). After filling out this worksheet, every light gray cell should have a numerical value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site_ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">action_ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature_ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site_descriptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">action_descriptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature_descriptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pond in Nova Scotia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance actions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coastal ecosystem in the upper coastal intertidal zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bay in Nova Scotia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restoration actions to improve ecological integrity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantic Coastal Plain Flora are a group of 94 herbaceous plants</t>
+  </si>
+  <si>
     <t xml:space="preserve">Signage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port Joli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter feasibility information for your sites into this worksheet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifically, we ask that you input data indicating which management actions are feasible to implement within each site. By default, all actions can be potentially implemented within each and every site. To specify that a certain a certain action cannot be implemented within a certain site, please enter value of “0”. You can also ensure that a certain site can ONLY have a certain action implemented within it, by specifying a value of “0” for every other action. This information, if you prefer, can also be specified within the NCC Priority Actions App---however, you will have to re-specify this information each and every time you open the NCC Priority Actions App.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feasibility of “Maintain”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feasibility of “Restore”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feasibility of “Signage”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter information for your features into this worksheet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifically, we ask that you input values to specify trade-offs for managing different biodiversity elements (e.g. species, habitat types) within your conservation planning exercise. To help prioritize implementation of specific management actions in specific sites, we require an estimate of the minimum amount of each feature you think is important to achieve across all of the sites (termed “target threshold amount”). For example, you could calculate these target threshold amounts as a percentage of the current amount of each feature (e.g. maybe you want to increase the amount of each feature by 50%)? Alternatively, these values could be guided using population viability analyses, statistical models, or expert elicitation. Please take care to ensure that each target value is in the same units as the expectation data. For example, the value in the cell B2 for this spreadsheet should be in the same unit as the values in the B column for all action expectation worksheets (i.e. worksheets starting with the word “Expectation”). To ensure that the prioritization process explicitly accounts for your objectives (i.e. what YOU think is important), you can also specify the relative importance (weight) of each feature. The default value is 1 such that all features are considered equally important. These values should be between 0 and 100. Greater values indicate greater importance. A weight of exactly 0 means that a feature is not important at all and does not “count” when comparing different conservation plans. Please note that these values can be changed later in the NCC Priority Actions App. After filling out this worksheet, every light gray cell should have a numerical value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feature ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target threshold amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relative importance (weight)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salt Marsh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACPF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freshwater Wetland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter information for your “Maintain” action into this worksheet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifically, we ask that you input the amount of each biodiversity element (termed feature) that you would expect to occur within each site after you implemented the “Maintain” action. For example, these values could indicate that you expect a certain feature (e.g. species) to be present (using a value of “1”) or absent (using a value of “0”) within certain sites after this action is implemented. Alternatively, these could represent quantities such as expected population size (using count values) or amount of habitat (in km^2). Although different feature can have different units, each feature must have values in the same units. Thus all rows in the same column within this worksheet must be in the same units. Additionally, across worksheets for different actions (i.e. those starting with the word “Expectation”), the values in the same column must be in the same units (e.g. all values in the column B in each of these of these action worksheets must have the same units). After filling out this worksheet, every light gray cell should have a numerical value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount of “Salt Marsh”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount of “ACPF”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount of “Freshwater Wetland”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter information for your “Restore” action into this worksheet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifically, we ask that you input the amount of each biodiversity element (termed feature) that you would expect to occur within each site after you implemented the “Restore” action. For example, these values could indicate that you expect a certain feature (e.g. species) to be present (using a value of “1”) or absent (using a value of “0”) within certain sites after this action is implemented. Alternatively, these could represent quantities such as expected population size (using count values) or amount of habitat (in km^2). Although different feature can have different units, each feature must have values in the same units. Thus all rows in the same column within this worksheet must be in the same units. Additionally, across worksheets for different actions (i.e. those starting with the word “Expectation”), the values in the same column must be in the same units (e.g. all values in the column B in each of these of these action worksheets must have the same units). After filling out this worksheet, every light gray cell should have a numerical value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter information for your “Signage” action into this worksheet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifically, we ask that you input the amount of each biodiversity element (termed feature) that you would expect to occur within each site after you implemented the “Signage” action. For example, these values could indicate that you expect a certain feature (e.g. species) to be present (using a value of “1”) or absent (using a value of “0”) within certain sites after this action is implemented. Alternatively, these could represent quantities such as expected population size (using count values) or amount of habitat (in km^2). Although different feature can have different units, each feature must have values in the same units. Thus all rows in the same column within this worksheet must be in the same units. Additionally, across worksheets for different actions (i.e. those starting with the word “Expectation”), the values in the same column must be in the same units (e.g. all values in the column B in each of these of these action worksheets must have the same units). After filling out this worksheet, every light gray cell should have a numerical value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site_ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">action_ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feature_ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site_descriptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">action_descriptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feature_descriptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pond in Nova Scotia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance actions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coastal ecosystem in the upper coastal intertidal zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bay in Nova Scotia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restoration actions to improve ecological integrity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlantic Coastal Plain Flora are a group of 94 herbaceous plants</t>
   </si>
   <si>
     <t xml:space="preserve">Ecologically important coastal area</t>
@@ -935,7 +935,7 @@
   <autoFilter ref="A3:C6"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Feature ID"/>
-    <tableColumn id="2" name="Target threshold amount"/>
+    <tableColumn id="2" name="Goal (%)"/>
     <tableColumn id="3" name="Relative importance (weight)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1351,13 +1351,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>371</v>
+        <v>246</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>415</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5">
@@ -1371,21 +1371,21 @@
         <v>43.7654869380519</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>553</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>-64.9080895986714</v>
@@ -1394,16 +1394,16 @@
         <v>43.8180985398522</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>353</v>
+        <v>228</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>507</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7">
@@ -1417,16 +1417,16 @@
         <v>43.5805904606311</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>417</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -1490,7 +1490,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1498,7 +1498,7 @@
     <row r="2" ht="100" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1508,13 +1508,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1547,7 +1547,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="6" t="n">
         <v>1</v>
@@ -1613,66 +1613,66 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="28.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="33.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="18.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="38.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" ht="250" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>45</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1684,7 +1684,7 @@
   <dataValidations count="2">
     <dataValidation type="decimal" operator="between" allowBlank="0" showInputMessage="1" showErrorMessage="1" sqref="B4:B6">
       <formula1>0</formula1>
-      <formula2>1000000</formula2>
+      <formula2>100</formula2>
     </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="0" showInputMessage="1" showErrorMessage="1" sqref="C4:C6">
       <formula1>0</formula1>
@@ -1720,7 +1720,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1728,7 +1728,7 @@
     <row r="2" ht="160" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1738,13 +1738,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1752,13 +1752,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>41</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -1766,27 +1766,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>99</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1794,13 +1794,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +1844,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1852,7 +1852,7 @@
     <row r="2" ht="160" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1862,13 +1862,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1876,13 +1876,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1890,27 +1890,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -1918,13 +1918,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1968,7 +1968,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1976,7 +1976,7 @@
     <row r="2" ht="160" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1986,13 +1986,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -2000,13 +2000,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>69</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -2014,27 +2014,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -2042,13 +2042,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2082,22 +2082,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>42</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -2108,16 +2108,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -2125,30 +2125,30 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>

--- a/inst/extdata/projects/simulated-data/simulated-data.xlsx
+++ b/inst/extdata/projects/simulated-data/simulated-data.xlsx
@@ -9,9 +9,9 @@
     <sheet name="Site data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Feasibility data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Feature data" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Expectation of “Maintain”" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Expectation of “Restore”" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Expectation of “Signage”" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Consequence of “Maintain”" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Consequence of “Restore”" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Consequence of “Signage”" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="metadata" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
 </workbook>
@@ -566,18 +566,21 @@
     <t xml:space="preserve">Johnston's Pond</t>
   </si>
   <si>
+    <t xml:space="preserve">Restore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lobster Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Joli</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maintain</t>
   </si>
   <si>
-    <t xml:space="preserve">Lobster Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port Joli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restore</t>
-  </si>
-  <si>
     <t xml:space="preserve">Round Bay</t>
   </si>
   <si>
@@ -681,9 +684,6 @@
   </si>
   <si>
     <t xml:space="preserve">Atlantic Coastal Plain Flora are a group of 94 herbaceous plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signage</t>
   </si>
   <si>
     <t xml:space="preserve">Ecologically important coastal area</t>
@@ -1351,13 +1351,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>391</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5">
@@ -1371,21 +1371,21 @@
         <v>43.7654869380519</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>290</v>
+        <v>207</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>334</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>-64.9080895986714</v>
@@ -1394,21 +1394,21 @@
         <v>43.8180985398522</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>-65.3498991696735</v>
@@ -1417,16 +1417,16 @@
         <v>43.5805904606311</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>238</v>
+        <v>371</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>491</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -1490,7 +1490,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1498,7 +1498,7 @@
     <row r="2" ht="100" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1508,26 +1508,26 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1535,41 +1535,41 @@
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1620,59 +1620,59 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" ht="250" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1720,7 +1720,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1728,7 +1728,7 @@
     <row r="2" ht="160" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1738,13 +1738,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1752,13 +1752,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
@@ -1766,41 +1766,41 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +1844,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1852,7 +1852,7 @@
     <row r="2" ht="160" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1862,13 +1862,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1876,13 +1876,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -1890,41 +1890,41 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1968,7 +1968,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1976,7 +1976,7 @@
     <row r="2" ht="160" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1986,13 +1986,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -2000,13 +2000,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -2014,41 +2014,41 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2082,22 +2082,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -2105,19 +2105,19 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -2125,30 +2125,30 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>

--- a/inst/extdata/projects/simulated-data/simulated-data.xlsx
+++ b/inst/extdata/projects/simulated-data/simulated-data.xlsx
@@ -10,8 +10,8 @@
     <sheet name="Feasibility data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Feature data" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Consequence of “Maintain”" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Consequence of “Restore”" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Consequence of “Signage”" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Consequence of “Signage”" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Consequence of “Restore”" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="metadata" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
 </workbook>
@@ -43,19 +43,19 @@
             <color rgb="FF000000"/>
             <name val="Tahoma"/>
           </rPr>
+          <t xml:space="preserve">Add signs to informing of local catch quotas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <name val="Tahoma"/>
+          </rPr>
           <t xml:space="preserve">Restoration actions to improve ecological integrity</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <name val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Add signs to informing of local catch quotas</t>
         </r>
       </text>
     </comment>
@@ -137,19 +137,19 @@
             <color rgb="FF000000"/>
             <name val="Tahoma"/>
           </rPr>
+          <t xml:space="preserve">Add signs to informing of local catch quotas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <name val="Tahoma"/>
+          </rPr>
           <t xml:space="preserve">Restoration actions to improve ecological integrity</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <name val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Add signs to informing of local catch quotas</t>
         </r>
       </text>
     </comment>
@@ -557,139 +557,139 @@
     <t xml:space="preserve">Cost of “Maintain”</t>
   </si>
   <si>
+    <t xml:space="preserve">Cost of “Signage”</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cost of “Restore”</t>
   </si>
   <si>
-    <t xml:space="preserve">Cost of “Signage”</t>
-  </si>
-  <si>
     <t xml:space="preserve">Johnston's Pond</t>
   </si>
   <si>
+    <t xml:space="preserve">Maintain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lobster Bay</t>
+  </si>
+  <si>
     <t xml:space="preserve">Restore</t>
   </si>
   <si>
-    <t xml:space="preserve">Lobster Bay</t>
+    <t xml:space="preserve">Port Joli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please enter feasibility information for your sites into this worksheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifically, we ask that you input data indicating which management actions are feasible to implement within each site. By default, all actions can be potentially implemented within each and every site. To specify that a certain a certain action cannot be implemented within a certain site, please enter value of “0”. You can also ensure that a certain site can ONLY have a certain action implemented within it, by specifying a value of “0” for every other action. This information, if you prefer, can also be specified within the NCC Priority Actions App---however, you will have to re-specify this information each and every time you open the NCC Priority Actions App.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feasibility of “Maintain”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feasibility of “Signage”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feasibility of “Restore”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please enter information for your features into this worksheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifically, we ask that you input values to specify trade-offs for managing different biodiversity elements (e.g. species, habitat types) within your conservation planning exercise. To help prioritize implementation of specific management actions in specific sites, we require percentage-based threshold values to specify the minimum amount of each feature you think is important to achieve across all of the sites (termed “goal”). Specifically, the goal values are expressed as a percentage of the maximum possible amount of each feature, assuming that the best possible action for each feature was implemented within each site (per the expecation data). To ensure that the prioritization process explicitly accounts for your objectives (i.e. what YOU think is important), you can also specify the relative importance (weight) of each feature. The default value is 1 such that all features are considered equally important. Greater values indicate greater importance. A weight of exactly 0 means that a feature is not important at all and does not “count” when comparing different conservation plans. Both goal and weight values should be between 0 and 100. Please note that these values can be changed later in the What To Do application. After filling out this worksheet, every light gray cell should have a numerical value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goal (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative importance (weight)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salt Marsh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freshwater Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please enter information for your “Maintain” action into this worksheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifically, we ask that you input the amount of each biodiversity element (termed feature) that you would expect to occur within each site after you implemented the “Maintain” action. For example, these values could indicate that you expect a certain feature (e.g. species) to be present (using a value of “1”) or absent (using a value of “0”) within certain sites after this action is implemented. Alternatively, these could represent quantities such as expected population size (using count values) or amount of habitat (in km^2). Although different feature can have different units, each feature must have values in the same units. Thus all rows in the same column within this worksheet must be in the same units. Additionally, across worksheets for different actions (i.e. those starting with the word “Expectation”), the values in the same column must be in the same units (e.g. all values in the column B in each of these of these action worksheets must have the same units). After filling out this worksheet, every light gray cell should have a numerical value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount of “Salt Marsh”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount of “ACPF”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount of “Freshwater Wetland”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please enter information for your “Signage” action into this worksheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifically, we ask that you input the amount of each biodiversity element (termed feature) that you would expect to occur within each site after you implemented the “Signage” action. For example, these values could indicate that you expect a certain feature (e.g. species) to be present (using a value of “1”) or absent (using a value of “0”) within certain sites after this action is implemented. Alternatively, these could represent quantities such as expected population size (using count values) or amount of habitat (in km^2). Although different feature can have different units, each feature must have values in the same units. Thus all rows in the same column within this worksheet must be in the same units. Additionally, across worksheets for different actions (i.e. those starting with the word “Expectation”), the values in the same column must be in the same units (e.g. all values in the column B in each of these of these action worksheets must have the same units). After filling out this worksheet, every light gray cell should have a numerical value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please enter information for your “Restore” action into this worksheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifically, we ask that you input the amount of each biodiversity element (termed feature) that you would expect to occur within each site after you implemented the “Restore” action. For example, these values could indicate that you expect a certain feature (e.g. species) to be present (using a value of “1”) or absent (using a value of “0”) within certain sites after this action is implemented. Alternatively, these could represent quantities such as expected population size (using count values) or amount of habitat (in km^2). Although different feature can have different units, each feature must have values in the same units. Thus all rows in the same column within this worksheet must be in the same units. Additionally, across worksheets for different actions (i.e. those starting with the word “Expectation”), the values in the same column must be in the same units (e.g. all values in the column B in each of these of these action worksheets must have the same units). After filling out this worksheet, every light gray cell should have a numerical value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site_ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">action_ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature_ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site_descriptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">action_descriptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature_descriptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pond in Nova Scotia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance actions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coastal ecosystem in the upper coastal intertidal zone</t>
   </si>
   <si>
     <t xml:space="preserve">Signage</t>
   </si>
   <si>
-    <t xml:space="preserve">Port Joli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter feasibility information for your sites into this worksheet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifically, we ask that you input data indicating which management actions are feasible to implement within each site. By default, all actions can be potentially implemented within each and every site. To specify that a certain a certain action cannot be implemented within a certain site, please enter value of “0”. You can also ensure that a certain site can ONLY have a certain action implemented within it, by specifying a value of “0” for every other action. This information, if you prefer, can also be specified within the NCC Priority Actions App---however, you will have to re-specify this information each and every time you open the NCC Priority Actions App.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feasibility of “Maintain”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feasibility of “Restore”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feasibility of “Signage”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter information for your features into this worksheet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifically, we ask that you input values to specify trade-offs for managing different biodiversity elements (e.g. species, habitat types) within your conservation planning exercise. To help prioritize implementation of specific management actions in specific sites, we require percentage-based threshold values to specify the minimum amount of each feature you think is important to achieve across all of the sites (termed “goal”). Specifically, the goal values are expressed as a percentage of the maximum possible amount of each feature, assuming that the best possible action for each feature was implemented within each site (per the expecation data). To ensure that the prioritization process explicitly accounts for your objectives (i.e. what YOU think is important), you can also specify the relative importance (weight) of each feature. The default value is 1 such that all features are considered equally important. Greater values indicate greater importance. A weight of exactly 0 means that a feature is not important at all and does not “count” when comparing different conservation plans. Both goal and weight values should be between 0 and 100. Please note that these values can be changed later in the What To Do application. After filling out this worksheet, every light gray cell should have a numerical value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feature ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goal (%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relative importance (weight)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salt Marsh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACPF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freshwater Wetland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter information for your “Maintain” action into this worksheet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifically, we ask that you input the amount of each biodiversity element (termed feature) that you would expect to occur within each site after you implemented the “Maintain” action. For example, these values could indicate that you expect a certain feature (e.g. species) to be present (using a value of “1”) or absent (using a value of “0”) within certain sites after this action is implemented. Alternatively, these could represent quantities such as expected population size (using count values) or amount of habitat (in km^2). Although different feature can have different units, each feature must have values in the same units. Thus all rows in the same column within this worksheet must be in the same units. Additionally, across worksheets for different actions (i.e. those starting with the word “Expectation”), the values in the same column must be in the same units (e.g. all values in the column B in each of these of these action worksheets must have the same units). After filling out this worksheet, every light gray cell should have a numerical value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount of “Salt Marsh”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount of “ACPF”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount of “Freshwater Wetland”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter information for your “Restore” action into this worksheet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifically, we ask that you input the amount of each biodiversity element (termed feature) that you would expect to occur within each site after you implemented the “Restore” action. For example, these values could indicate that you expect a certain feature (e.g. species) to be present (using a value of “1”) or absent (using a value of “0”) within certain sites after this action is implemented. Alternatively, these could represent quantities such as expected population size (using count values) or amount of habitat (in km^2). Although different feature can have different units, each feature must have values in the same units. Thus all rows in the same column within this worksheet must be in the same units. Additionally, across worksheets for different actions (i.e. those starting with the word “Expectation”), the values in the same column must be in the same units (e.g. all values in the column B in each of these of these action worksheets must have the same units). After filling out this worksheet, every light gray cell should have a numerical value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter information for your “Signage” action into this worksheet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifically, we ask that you input the amount of each biodiversity element (termed feature) that you would expect to occur within each site after you implemented the “Signage” action. For example, these values could indicate that you expect a certain feature (e.g. species) to be present (using a value of “1”) or absent (using a value of “0”) within certain sites after this action is implemented. Alternatively, these could represent quantities such as expected population size (using count values) or amount of habitat (in km^2). Although different feature can have different units, each feature must have values in the same units. Thus all rows in the same column within this worksheet must be in the same units. Additionally, across worksheets for different actions (i.e. those starting with the word “Expectation”), the values in the same column must be in the same units (e.g. all values in the column B in each of these of these action worksheets must have the same units). After filling out this worksheet, every light gray cell should have a numerical value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site_ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">action_ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feature_ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site_descriptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">action_descriptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feature_descriptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pond in Nova Scotia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance actions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coastal ecosystem in the upper coastal intertidal zone</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bay in Nova Scotia</t>
   </si>
   <si>
+    <t xml:space="preserve">Add signs to informing of local catch quotas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantic Coastal Plain Flora are a group of 94 herbaceous plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecologically important coastal area</t>
+  </si>
+  <si>
     <t xml:space="preserve">Restoration actions to improve ecological integrity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlantic Coastal Plain Flora are a group of 94 herbaceous plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecologically important coastal area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add signs to informing of local catch quotas</t>
   </si>
   <si>
     <t xml:space="preserve">Non-tidal, non-forested marsh wetland that contains freshwater, and is frequently flooded</t>
@@ -910,8 +910,8 @@
     <tableColumn id="3" name="Latitude (DD)"/>
     <tableColumn id="4" name="Current status"/>
     <tableColumn id="5" name="Cost of “Maintain”"/>
-    <tableColumn id="6" name="Cost of “Restore”"/>
-    <tableColumn id="7" name="Cost of “Signage”"/>
+    <tableColumn id="6" name="Cost of “Signage”"/>
+    <tableColumn id="7" name="Cost of “Restore”"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -923,8 +923,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Site ID"/>
     <tableColumn id="2" name="Feasibility of “Maintain”"/>
-    <tableColumn id="3" name="Feasibility of “Restore”"/>
-    <tableColumn id="4" name="Feasibility of “Signage”"/>
+    <tableColumn id="3" name="Feasibility of “Signage”"/>
+    <tableColumn id="4" name="Feasibility of “Restore”"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1351,13 +1351,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>553</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5">
@@ -1374,13 +1374,13 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>207</v>
+        <v>361</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>521</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6">
@@ -1394,21 +1394,21 @@
         <v>43.8180985398522</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>262</v>
+        <v>333</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>533</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>-65.3498991696735</v>
@@ -1420,13 +1420,13 @@
         <v>12</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>371</v>
+        <v>208</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>509</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -1490,7 +1490,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1498,7 +1498,7 @@
     <row r="2" ht="100" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1508,13 +1508,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1561,7 +1561,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="6" t="b">
         <v>1</v>
@@ -1620,59 +1620,59 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" ht="250" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>84</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1720,7 +1720,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1728,7 +1728,7 @@
     <row r="2" ht="160" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1738,13 +1738,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1752,13 +1752,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>79</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5">
@@ -1766,13 +1766,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>98</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6">
@@ -1780,27 +1780,27 @@
         <v>13</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>22</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>70</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +1844,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1852,7 +1852,7 @@
     <row r="2" ht="160" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1862,13 +1862,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1876,13 +1876,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>37</v>
+        <v>279</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>28</v>
+        <v>357</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>33</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
@@ -1890,13 +1890,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>17</v>
+        <v>282</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>34</v>
+        <v>305</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>33</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6">
@@ -1904,27 +1904,27 @@
         <v>13</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>4</v>
+        <v>357</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>35</v>
+        <v>336</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>81</v>
+        <v>315</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>7</v>
+        <v>302</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>94</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -1968,7 +1968,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1976,7 +1976,7 @@
     <row r="2" ht="160" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1986,13 +1986,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -2000,13 +2000,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>93</v>
+        <v>392</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>68</v>
+        <v>332</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>39</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5">
@@ -2014,13 +2014,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>72</v>
+        <v>314</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>48</v>
+        <v>358</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>77</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6">
@@ -2028,27 +2028,27 @@
         <v>13</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>15</v>
+        <v>435</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>23</v>
+        <v>504</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>37</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>58</v>
+        <v>546</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>1</v>
+        <v>492</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>65</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -2082,22 +2082,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>42</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -2105,19 +2105,19 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -2125,10 +2125,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>47</v>
@@ -2148,7 +2148,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>

--- a/inst/extdata/projects/simulated-data/simulated-data.xlsx
+++ b/inst/extdata/projects/simulated-data/simulated-data.xlsx
@@ -566,13 +566,13 @@
     <t xml:space="preserve">Johnston's Pond</t>
   </si>
   <si>
+    <t xml:space="preserve">Restore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lobster Bay</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maintain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lobster Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restore</t>
   </si>
   <si>
     <t xml:space="preserve">Port Joli</t>
@@ -1351,13 +1351,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>429</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5">
@@ -1374,13 +1374,13 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>479</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6">
@@ -1394,16 +1394,16 @@
         <v>43.8180985398522</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>333</v>
+        <v>268</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>313</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7">
@@ -1417,16 +1417,16 @@
         <v>43.5805904606311</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>208</v>
+        <v>290</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>432</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -1647,10 +1647,10 @@
         <v>25</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1658,10 +1658,10 @@
         <v>26</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -1669,10 +1669,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>43</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1752,13 +1752,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>198</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5">
@@ -1766,13 +1766,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
@@ -1780,13 +1780,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
@@ -1794,13 +1794,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1876,13 +1876,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>279</v>
+        <v>204</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>357</v>
+        <v>275</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>209</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5">
@@ -1890,13 +1890,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>282</v>
+        <v>377</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>305</v>
+        <v>392</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>273</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6">
@@ -1904,13 +1904,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>289</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7">
@@ -1918,13 +1918,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>315</v>
+        <v>388</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>383</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -2000,13 +2000,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>392</v>
+        <v>573</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>332</v>
+        <v>485</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>437</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5">
@@ -2014,13 +2014,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>358</v>
+        <v>524</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>473</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6">
@@ -2028,13 +2028,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>504</v>
+        <v>358</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>371</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7">
@@ -2042,13 +2042,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>546</v>
+        <v>337</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>409</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -2105,7 +2105,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -2145,7 +2145,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>

--- a/inst/extdata/projects/simulated-data/simulated-data.xlsx
+++ b/inst/extdata/projects/simulated-data/simulated-data.xlsx
@@ -572,97 +572,97 @@
     <t xml:space="preserve">Lobster Bay</t>
   </si>
   <si>
+    <t xml:space="preserve">Port Joli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please enter feasibility information for your sites into this worksheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifically, we ask that you input data indicating which management actions are feasible to implement within each site. By default, all actions can be potentially implemented within each and every site. To specify that a certain a certain action cannot be implemented within a certain site, please enter value of “0”. You can also ensure that a certain site can ONLY have a certain action implemented within it, by specifying a value of “0” for every other action. This information, if you prefer, can also be specified within the NCC Priority Actions App---however, you will have to re-specify this information each and every time you open the NCC Priority Actions App.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feasibility of “Maintain”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feasibility of “Signage”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feasibility of “Restore”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please enter information for your features into this worksheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifically, we ask that you input values to specify trade-offs for managing different biodiversity elements (e.g. species, habitat types) within your conservation planning exercise. To help prioritize implementation of specific management actions in specific sites, we require percentage-based threshold values to specify the minimum amount of each feature you think is important to achieve across all of the sites (termed “goal”). Specifically, the goal values are expressed as a percentage of the maximum possible amount of each feature, assuming that the best possible action for each feature was implemented within each site (per the expecation data). To ensure that the prioritization process explicitly accounts for your objectives (i.e. what YOU think is important), you can also specify the relative importance (weight) of each feature. The default value is 1 such that all features are considered equally important. Greater values indicate greater importance. A weight of exactly 0 means that a feature is not important at all and does not “count” when comparing different conservation plans. Both goal and weight values should be between 0 and 100. Please note that these values can be changed later in the What To Do application. After filling out this worksheet, every light gray cell should have a numerical value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goal (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative importance (weight)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salt Marsh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freshwater Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please enter information for your “Maintain” action into this worksheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifically, we ask that you input the amount of each biodiversity element (termed feature) that you would expect to occur within each site after you implemented the “Maintain” action. For example, these values could indicate that you expect a certain feature (e.g. species) to be present (using a value of “1”) or absent (using a value of “0”) within certain sites after this action is implemented. Alternatively, these could represent quantities such as expected population size (using count values) or amount of habitat (in km^2). Although different feature can have different units, each feature must have values in the same units. Thus all rows in the same column within this worksheet must be in the same units. Additionally, across worksheets for different actions (i.e. those starting with the word “Expectation”), the values in the same column must be in the same units (e.g. all values in the column B in each of these of these action worksheets must have the same units). After filling out this worksheet, every light gray cell should have a numerical value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount of “Salt Marsh”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount of “ACPF”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount of “Freshwater Wetland”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please enter information for your “Signage” action into this worksheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifically, we ask that you input the amount of each biodiversity element (termed feature) that you would expect to occur within each site after you implemented the “Signage” action. For example, these values could indicate that you expect a certain feature (e.g. species) to be present (using a value of “1”) or absent (using a value of “0”) within certain sites after this action is implemented. Alternatively, these could represent quantities such as expected population size (using count values) or amount of habitat (in km^2). Although different feature can have different units, each feature must have values in the same units. Thus all rows in the same column within this worksheet must be in the same units. Additionally, across worksheets for different actions (i.e. those starting with the word “Expectation”), the values in the same column must be in the same units (e.g. all values in the column B in each of these of these action worksheets must have the same units). After filling out this worksheet, every light gray cell should have a numerical value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please enter information for your “Restore” action into this worksheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifically, we ask that you input the amount of each biodiversity element (termed feature) that you would expect to occur within each site after you implemented the “Restore” action. For example, these values could indicate that you expect a certain feature (e.g. species) to be present (using a value of “1”) or absent (using a value of “0”) within certain sites after this action is implemented. Alternatively, these could represent quantities such as expected population size (using count values) or amount of habitat (in km^2). Although different feature can have different units, each feature must have values in the same units. Thus all rows in the same column within this worksheet must be in the same units. Additionally, across worksheets for different actions (i.e. those starting with the word “Expectation”), the values in the same column must be in the same units (e.g. all values in the column B in each of these of these action worksheets must have the same units). After filling out this worksheet, every light gray cell should have a numerical value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site_ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">action_ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature_ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site_descriptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">action_descriptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature_descriptions</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maintain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port Joli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter feasibility information for your sites into this worksheet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifically, we ask that you input data indicating which management actions are feasible to implement within each site. By default, all actions can be potentially implemented within each and every site. To specify that a certain a certain action cannot be implemented within a certain site, please enter value of “0”. You can also ensure that a certain site can ONLY have a certain action implemented within it, by specifying a value of “0” for every other action. This information, if you prefer, can also be specified within the NCC Priority Actions App---however, you will have to re-specify this information each and every time you open the NCC Priority Actions App.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feasibility of “Maintain”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feasibility of “Signage”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feasibility of “Restore”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter information for your features into this worksheet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifically, we ask that you input values to specify trade-offs for managing different biodiversity elements (e.g. species, habitat types) within your conservation planning exercise. To help prioritize implementation of specific management actions in specific sites, we require percentage-based threshold values to specify the minimum amount of each feature you think is important to achieve across all of the sites (termed “goal”). Specifically, the goal values are expressed as a percentage of the maximum possible amount of each feature, assuming that the best possible action for each feature was implemented within each site (per the expecation data). To ensure that the prioritization process explicitly accounts for your objectives (i.e. what YOU think is important), you can also specify the relative importance (weight) of each feature. The default value is 1 such that all features are considered equally important. Greater values indicate greater importance. A weight of exactly 0 means that a feature is not important at all and does not “count” when comparing different conservation plans. Both goal and weight values should be between 0 and 100. Please note that these values can be changed later in the What To Do application. After filling out this worksheet, every light gray cell should have a numerical value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feature ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goal (%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relative importance (weight)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salt Marsh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACPF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freshwater Wetland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter information for your “Maintain” action into this worksheet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifically, we ask that you input the amount of each biodiversity element (termed feature) that you would expect to occur within each site after you implemented the “Maintain” action. For example, these values could indicate that you expect a certain feature (e.g. species) to be present (using a value of “1”) or absent (using a value of “0”) within certain sites after this action is implemented. Alternatively, these could represent quantities such as expected population size (using count values) or amount of habitat (in km^2). Although different feature can have different units, each feature must have values in the same units. Thus all rows in the same column within this worksheet must be in the same units. Additionally, across worksheets for different actions (i.e. those starting with the word “Expectation”), the values in the same column must be in the same units (e.g. all values in the column B in each of these of these action worksheets must have the same units). After filling out this worksheet, every light gray cell should have a numerical value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount of “Salt Marsh”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount of “ACPF”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount of “Freshwater Wetland”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter information for your “Signage” action into this worksheet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifically, we ask that you input the amount of each biodiversity element (termed feature) that you would expect to occur within each site after you implemented the “Signage” action. For example, these values could indicate that you expect a certain feature (e.g. species) to be present (using a value of “1”) or absent (using a value of “0”) within certain sites after this action is implemented. Alternatively, these could represent quantities such as expected population size (using count values) or amount of habitat (in km^2). Although different feature can have different units, each feature must have values in the same units. Thus all rows in the same column within this worksheet must be in the same units. Additionally, across worksheets for different actions (i.e. those starting with the word “Expectation”), the values in the same column must be in the same units (e.g. all values in the column B in each of these of these action worksheets must have the same units). After filling out this worksheet, every light gray cell should have a numerical value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter information for your “Restore” action into this worksheet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifically, we ask that you input the amount of each biodiversity element (termed feature) that you would expect to occur within each site after you implemented the “Restore” action. For example, these values could indicate that you expect a certain feature (e.g. species) to be present (using a value of “1”) or absent (using a value of “0”) within certain sites after this action is implemented. Alternatively, these could represent quantities such as expected population size (using count values) or amount of habitat (in km^2). Although different feature can have different units, each feature must have values in the same units. Thus all rows in the same column within this worksheet must be in the same units. Additionally, across worksheets for different actions (i.e. those starting with the word “Expectation”), the values in the same column must be in the same units (e.g. all values in the column B in each of these of these action worksheets must have the same units). After filling out this worksheet, every light gray cell should have a numerical value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site_ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">action_ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feature_ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site_descriptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">action_descriptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feature_descriptions</t>
   </si>
   <si>
     <t xml:space="preserve">Pond in Nova Scotia</t>
@@ -1351,13 +1351,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>270</v>
+        <v>355</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>487</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5">
@@ -1371,21 +1371,21 @@
         <v>43.7654869380519</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>276</v>
+        <v>211</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>526</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>-64.9080895986714</v>
@@ -1394,21 +1394,21 @@
         <v>43.8180985398522</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>268</v>
+        <v>350</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>442</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>-65.3498991696735</v>
@@ -1420,13 +1420,13 @@
         <v>10</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>290</v>
+        <v>397</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>391</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -1490,7 +1490,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1498,7 +1498,7 @@
     <row r="2" ht="100" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1508,13 +1508,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -1547,7 +1547,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="6" t="b">
         <v>1</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="6" t="b">
         <v>1</v>
@@ -1620,59 +1620,59 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" ht="250" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>22</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1720,7 +1720,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1728,7 +1728,7 @@
     <row r="2" ht="160" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1738,13 +1738,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1752,13 +1752,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>113</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5">
@@ -1766,41 +1766,41 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>131</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +1844,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1852,7 +1852,7 @@
     <row r="2" ht="160" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1862,13 +1862,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1876,13 +1876,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>204</v>
+        <v>329</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>275</v>
+        <v>388</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>280</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5">
@@ -1890,41 +1890,41 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>377</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>328</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>245</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>297</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -1968,7 +1968,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1976,7 +1976,7 @@
     <row r="2" ht="160" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1986,13 +1986,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -2000,13 +2000,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>485</v>
+        <v>551</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5">
@@ -2014,41 +2014,41 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>426</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>358</v>
+        <v>457</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>540</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>468</v>
+        <v>506</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>428</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -2082,22 +2082,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>41</v>
-      </c>
-      <c r="F1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -2105,10 +2105,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>43</v>
@@ -2128,7 +2128,7 @@
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>47</v>
@@ -2142,13 +2142,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>

--- a/inst/extdata/projects/simulated-data/simulated-data.xlsx
+++ b/inst/extdata/projects/simulated-data/simulated-data.xlsx
@@ -539,7 +539,7 @@
     <t xml:space="preserve">Please enter information for your sites into this worksheet.</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifically, we ask that you input the longitude and latitude (in decimal degrees) of each site. If you have a shapefile with spatial locations (e.g. point localities, boundaries) of your sites, these can also be supplied in the NCC Priority Actions App. We also ask that you input the cost of implementing each management action (e.g. in Canadian Dollars) within each site. Please note that cost values should not be below zero (though they can equal zero) and not be greater than 1,000,000 (i.e. one million). As such, you might need to rescale your cost values. For example, if one of your cost values is “10000000” Canadian Dollars, instead of inputting values as Canadian Dollars, you could you input values as thousands of Canadian Dollars (i.e. “10000”). Please take care to ensure that all cost values are in the same units. After filling out this worksheet, every light gray cell should have a numerical value.</t>
+    <t xml:space="preserve">Specifically, we ask that you input the longitude and latitude (in decimal degrees) of each site. If you have a shapefile with spatial locations (e.g. point localities, boundaries) of your sites, these can also be supplied in the What To Do application. We also ask that you input the cost of implementing each management action (e.g. in Canadian Dollars) within each site. Please note that cost values should not be below zero (though they can equal zero) and not be greater than 1,000,000 (i.e. one million). As such, you might need to rescale your cost values. For example, if one of your cost values is “10000000” Canadian Dollars, instead of inputting values as Canadian Dollars, you could you input values as thousands of Canadian Dollars (i.e. “10000”). Please take care to ensure that all cost values are in the same units. After filling out this worksheet, every light gray cell should have a numerical value.</t>
   </si>
   <si>
     <t xml:space="preserve">Site ID</t>
@@ -572,6 +572,9 @@
     <t xml:space="preserve">Lobster Bay</t>
   </si>
   <si>
+    <t xml:space="preserve">Signage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Port Joli</t>
   </si>
   <si>
@@ -581,7 +584,7 @@
     <t xml:space="preserve">Please enter feasibility information for your sites into this worksheet.</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifically, we ask that you input data indicating which management actions are feasible to implement within each site. By default, all actions can be potentially implemented within each and every site. To specify that a certain a certain action cannot be implemented within a certain site, please enter value of “0”. You can also ensure that a certain site can ONLY have a certain action implemented within it, by specifying a value of “0” for every other action. This information, if you prefer, can also be specified within the NCC Priority Actions App---however, you will have to re-specify this information each and every time you open the NCC Priority Actions App.</t>
+    <t xml:space="preserve">Specifically, we ask that you input data indicating which management actions are feasible to implement within each site. By default, all actions can be potentially implemented within each and every site. To specify that a certain a certain action cannot be implemented within a certain site, please enter value of “0”. You can also ensure that a certain site can ONLY have a certain action implemented within it, by specifying a value of “0” for every other action. This information, if you prefer, can also be specified within the What To Do application---however, you will have to re-specify this information each and every time you open the application.</t>
   </si>
   <si>
     <t xml:space="preserve">Feasibility of “Maintain”</t>
@@ -672,9 +675,6 @@
   </si>
   <si>
     <t xml:space="preserve">Coastal ecosystem in the upper coastal intertidal zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signage</t>
   </si>
   <si>
     <t xml:space="preserve">Bay in Nova Scotia</t>
@@ -1351,13 +1351,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>328</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5">
@@ -1371,21 +1371,21 @@
         <v>43.7654869380519</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>211</v>
+        <v>296</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>470</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>-64.9080895986714</v>
@@ -1397,18 +1397,18 @@
         <v>10</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>350</v>
+        <v>207</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>405</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>-65.3498991696735</v>
@@ -1417,16 +1417,16 @@
         <v>43.5805904606311</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>537</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -1490,7 +1490,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1498,7 +1498,7 @@
     <row r="2" ht="100" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1508,13 +1508,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -1547,7 +1547,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="6" t="b">
         <v>1</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="6" t="b">
         <v>1</v>
@@ -1620,59 +1620,59 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" ht="250" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="C4" s="5" t="n">
         <v>24</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>76</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>91</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1720,7 +1720,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1728,7 +1728,7 @@
     <row r="2" ht="160" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1738,13 +1738,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1752,13 +1752,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>196</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
@@ -1766,41 +1766,41 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +1844,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1852,7 +1852,7 @@
     <row r="2" ht="160" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1862,13 +1862,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1876,13 +1876,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>329</v>
+        <v>206</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>388</v>
+        <v>206</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>322</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5">
@@ -1890,41 +1890,41 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>271</v>
+        <v>379</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>346</v>
+        <v>207</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>304</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>335</v>
+        <v>396</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>337</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>363</v>
+        <v>287</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>375</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -1968,7 +1968,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1976,7 +1976,7 @@
     <row r="2" ht="160" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1986,13 +1986,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -2000,13 +2000,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>551</v>
+        <v>373</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>551</v>
+        <v>441</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>357</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5">
@@ -2014,41 +2014,41 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>494</v>
+        <v>369</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>596</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>384</v>
+        <v>542</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>561</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>564</v>
+        <v>600</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>406</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -2082,22 +2082,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -2105,19 +2105,19 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -2125,10 +2125,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>47</v>
@@ -2142,13 +2142,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>

--- a/inst/extdata/projects/simulated-data/simulated-data.xlsx
+++ b/inst/extdata/projects/simulated-data/simulated-data.xlsx
@@ -9,9 +9,9 @@
     <sheet name="Site data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Feasibility data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Feature data" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Consequence of “Maintain”" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Consequence of “Signage”" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Consequence of “Restore”" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="“Maintain” consequence" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="“Signage” consequence" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="“Restore” consequence" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="metadata" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
 </workbook>
@@ -20,7 +20,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>X</author>
+    <author>What Template Maker</author>
   </authors>
   <commentList>
     <comment ref="E3" authorId="0" shapeId="0">
@@ -114,7 +114,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>X</author>
+    <author>What Template Maker</author>
   </authors>
   <commentList>
     <comment ref="B3" authorId="0" shapeId="0">
@@ -208,7 +208,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>X</author>
+    <author>What Template Maker</author>
   </authors>
   <commentList>
     <comment ref="A4" authorId="0" shapeId="0">
@@ -254,7 +254,7 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>X</author>
+    <author>What Template Maker</author>
   </authors>
   <commentList>
     <comment ref="B3" authorId="0" shapeId="0">
@@ -348,7 +348,7 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>X</author>
+    <author>What Template Maker</author>
   </authors>
   <commentList>
     <comment ref="B3" authorId="0" shapeId="0">
@@ -442,7 +442,7 @@
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>X</author>
+    <author>What Template Maker</author>
   </authors>
   <commentList>
     <comment ref="B3" authorId="0" shapeId="0">
@@ -566,13 +566,13 @@
     <t xml:space="preserve">Johnston's Pond</t>
   </si>
   <si>
+    <t xml:space="preserve">Signage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lobster Bay</t>
+  </si>
+  <si>
     <t xml:space="preserve">Restore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lobster Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signage</t>
   </si>
   <si>
     <t xml:space="preserve">Port Joli</t>
@@ -1351,13 +1351,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>371</v>
+        <v>238</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>596</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5">
@@ -1374,13 +1374,13 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>527</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6">
@@ -1397,13 +1397,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>207</v>
+        <v>329</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>363</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7">
@@ -1420,13 +1420,13 @@
         <v>12</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>520</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -1647,10 +1647,10 @@
         <v>25</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
@@ -1658,10 +1658,10 @@
         <v>26</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -1669,10 +1669,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1752,13 +1752,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
@@ -1766,13 +1766,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>144</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
@@ -1780,13 +1780,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>157</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
@@ -1794,13 +1794,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1876,13 +1876,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>206</v>
+        <v>390</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>291</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5">
@@ -1890,13 +1890,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>379</v>
+        <v>282</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>237</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6">
@@ -1904,13 +1904,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>267</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7">
@@ -1918,13 +1918,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>287</v>
+        <v>221</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>229</v>
+        <v>323</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -2000,13 +2000,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>441</v>
+        <v>376</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>463</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5">
@@ -2014,13 +2014,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="n">
+        <v>520</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>519</v>
+      </c>
+      <c r="D5" s="5" t="n">
         <v>397</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>369</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>551</v>
       </c>
     </row>
     <row r="6">
@@ -2028,13 +2028,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>506</v>
+        <v>387</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>514</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7">
@@ -2042,13 +2042,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>600</v>
+        <v>410</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>481</v>
+        <v>405</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -2125,7 +2125,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -2145,7 +2145,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>

--- a/inst/extdata/projects/simulated-data/simulated-data.xlsx
+++ b/inst/extdata/projects/simulated-data/simulated-data.xlsx
@@ -566,18 +566,18 @@
     <t xml:space="preserve">Johnston's Pond</t>
   </si>
   <si>
+    <t xml:space="preserve">Restore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lobster Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Joli</t>
+  </si>
+  <si>
     <t xml:space="preserve">Signage</t>
   </si>
   <si>
-    <t xml:space="preserve">Lobster Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port Joli</t>
-  </si>
-  <si>
     <t xml:space="preserve">Round Bay</t>
   </si>
   <si>
@@ -599,7 +599,7 @@
     <t xml:space="preserve">Please enter information for your features into this worksheet.</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifically, we ask that you input values to specify trade-offs for managing different biodiversity elements (e.g. species, habitat types) within your conservation planning exercise. To help prioritize implementation of specific management actions in specific sites, we require percentage-based threshold values to specify the minimum amount of each feature you think is important to achieve across all of the sites (termed “goal”). Specifically, the goal values are expressed as a percentage of the maximum possible amount of each feature, assuming that the best possible action for each feature was implemented within each site (per the expecation data). To ensure that the prioritization process explicitly accounts for your objectives (i.e. what YOU think is important), you can also specify the relative importance (weight) of each feature. The default value is 1 such that all features are considered equally important. Greater values indicate greater importance. A weight of exactly 0 means that a feature is not important at all and does not “count” when comparing different conservation plans. Both goal and weight values should be between 0 and 100. Please note that these values can be changed later in the What To Do application. After filling out this worksheet, every light gray cell should have a numerical value.</t>
+    <t xml:space="preserve">Specifically, we ask that you input values to specify trade-offs for managing different biodiversity elements (e.g. species, habitat types) within your conservation planning exercise. To help prioritize implementation of specific management actions in specific sites, we require percentage-based threshold values to specify the minimum amount of each feature you think is important to achieve across all of the sites (termed “goal”). Specifically, the goal values are expressed as a percentage of the maximum possible amount of each feature, assuming that the best possible action for each feature was implemented within each site (per the expecation data). To ensure that the prioritization process explicitly accounts for your objectives (i.e. what YOU think is important), you can also specify the relative importance of each feature. The default value is 1 such that all features are considered equally important. Greater values indicate greater importance. An importance value of exactly 0 means that a feature is not important at all and does not “count” when comparing different conservation plans. Both goal and importance values should be between 0 and 100. Please note that these values can be changed later in the What To Do application. After filling out this worksheet, every light gray cell should have a numerical value.</t>
   </si>
   <si>
     <t xml:space="preserve">Feature ID</t>
@@ -608,7 +608,7 @@
     <t xml:space="preserve">Goal (%)</t>
   </si>
   <si>
-    <t xml:space="preserve">Relative importance (weight)</t>
+    <t xml:space="preserve">Relative importance</t>
   </si>
   <si>
     <t xml:space="preserve">Salt Marsh</t>
@@ -936,7 +936,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Feature ID"/>
     <tableColumn id="2" name="Goal (%)"/>
-    <tableColumn id="3" name="Relative importance (weight)"/>
+    <tableColumn id="3" name="Relative importance"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1351,13 +1351,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>238</v>
+        <v>335</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5">
@@ -1371,21 +1371,21 @@
         <v>43.7654869380519</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>361</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>-64.9080895986714</v>
@@ -1394,16 +1394,16 @@
         <v>43.8180985398522</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>329</v>
+        <v>219</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>405</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7">
@@ -1417,16 +1417,16 @@
         <v>43.5805904606311</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>338</v>
+        <v>215</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>354</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="6" t="b">
         <v>1</v>
@@ -1614,7 +1614,7 @@
   <cols>
     <col min="1" max="1" width="28.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="18.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="38.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="29.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1647,10 +1647,10 @@
         <v>25</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -1658,10 +1658,10 @@
         <v>26</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -1672,7 +1672,7 @@
         <v>99</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>92</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1752,13 +1752,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5">
@@ -1766,27 +1766,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>124</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>128</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7">
@@ -1794,13 +1794,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>140</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1876,13 +1876,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>390</v>
+        <v>230</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>223</v>
+        <v>280</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>335</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5">
@@ -1890,27 +1890,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>236</v>
+        <v>342</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>392</v>
+        <v>314</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>340</v>
+        <v>253</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>207</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7">
@@ -1918,13 +1918,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>221</v>
+        <v>340</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>301</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2000,13 +2000,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>311</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5">
@@ -2014,27 +2014,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>520</v>
+        <v>454</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>519</v>
+        <v>558</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>397</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>387</v>
+        <v>507</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>363</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7">
@@ -2042,13 +2042,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>405</v>
+        <v>316</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>486</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -2125,7 +2125,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
